--- a/sirius_cpi/processed_data.xlsx
+++ b/sirius_cpi/processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,13 +554,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Какая в целом ваша оценка работы подразделения?</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Итоговая оценка</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>85.2</v>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>102.1</v>
       </c>
     </row>
   </sheetData>
